--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6343E172-51E5-4D65-BBA3-FE137A4129F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAEB3D9-F9CA-4939-8A64-C94393932201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -35,10 +35,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>SR.No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Nitin Singh</t>
+  </si>
+  <si>
+    <t>Pravin Shukla</t>
+  </si>
+  <si>
+    <t>Maddy Singh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +431,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAEB3D9-F9CA-4939-8A64-C94393932201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB41E4-234A-473D-BDB5-8E563D3ADB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SR.No</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Maddy Singh</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,6 +474,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB41E4-234A-473D-BDB5-8E563D3ADB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6564B858-B3D9-46F5-9572-DF3A6A107F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SR.No</t>
   </si>
@@ -44,16 +44,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Nitin Singh</t>
-  </si>
-  <si>
     <t>Pravin Shukla</t>
   </si>
   <si>
     <t>Maddy Singh</t>
   </si>
   <si>
-    <t>Mahesh</t>
+    <t>Nitin Kumar Vinod Kumar Singh</t>
+  </si>
+  <si>
+    <t>Mahesh Taneja</t>
+  </si>
+  <si>
+    <t>Piyush Kumar Soni</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -463,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -471,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -480,6 +483,14 @@
       </c>
       <c r="B7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6564B858-B3D9-46F5-9572-DF3A6A107F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6243CDD5-8DA5-472C-B774-652B6E03648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SR.No</t>
   </si>
@@ -57,6 +58,15 @@
   </si>
   <si>
     <t>Piyush Kumar Soni</t>
+  </si>
+  <si>
+    <t>Sr .No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pre - Push Checking</t>
   </si>
 </sst>
 </file>
@@ -439,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -497,4 +507,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCA2A7E-B719-45DB-B4BE-27B9BB720BE0}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6243CDD5-8DA5-472C-B774-652B6E03648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC9799-93A2-428D-A206-27F79CAD453E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hello" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SR.No</t>
   </si>
@@ -57,9 +58,6 @@
     <t>Mahesh Taneja</t>
   </si>
   <si>
-    <t>Piyush Kumar Soni</t>
-  </si>
-  <si>
     <t>Sr .No</t>
   </si>
   <si>
@@ -67,6 +65,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Pre - Push Checking</t>
+  </si>
+  <si>
+    <t>Piyush  Soni</t>
+  </si>
+  <si>
+    <t>Dharam Singh</t>
+  </si>
+  <si>
+    <t>Second Time Checking</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
   </si>
 </sst>
 </file>
@@ -447,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +510,15 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -511,20 +529,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCA2A7E-B719-45DB-B4BE-27B9BB720BE0}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -532,7 +550,35 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA5B2A2-4CC1-4524-AF94-1EED4552DD06}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC9799-93A2-428D-A206-27F79CAD453E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120E690-B1EE-4C54-B154-45A261E39E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hello" sheetId="3" r:id="rId3"/>
+    <sheet name="Employees" sheetId="1" r:id="rId1"/>
+    <sheet name="Task List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,26 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>SR.No</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Pravin Shukla</t>
-  </si>
-  <si>
-    <t>Maddy Singh</t>
-  </si>
-  <si>
-    <t>Nitin Kumar Vinod Kumar Singh</t>
-  </si>
-  <si>
-    <t>Mahesh Taneja</t>
-  </si>
-  <si>
     <t>Sr .No</t>
   </si>
   <si>
@@ -67,16 +51,55 @@
     <t xml:space="preserve"> Pre - Push Checking</t>
   </si>
   <si>
-    <t>Piyush  Soni</t>
-  </si>
-  <si>
-    <t>Dharam Singh</t>
-  </si>
-  <si>
     <t>Second Time Checking</t>
   </si>
   <si>
-    <t>Sheet Name</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Vinod Kumar</t>
+  </si>
+  <si>
+    <t>Nitin Kumar</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pravin </t>
+  </si>
+  <si>
+    <t>Shukla</t>
+  </si>
+  <si>
+    <t>Leeladhar</t>
+  </si>
+  <si>
+    <t>Taneja</t>
+  </si>
+  <si>
+    <t>Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maddy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahesh </t>
+  </si>
+  <si>
+    <t>Dhiraj</t>
+  </si>
+  <si>
+    <t>Piyush  Kumar</t>
+  </si>
+  <si>
+    <t>Dharam Kumar</t>
   </si>
 </sst>
 </file>
@@ -457,67 +480,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -532,17 +599,21 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="59.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -550,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -558,27 +629,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA5B2A2-4CC1-4524-AF94-1EED4552DD06}">
-  <dimension ref="A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120E690-B1EE-4C54-B154-45A261E39E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9807569-436B-4377-9EC4-506BBEB92860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>SR.No</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Singh</t>
   </si>
   <si>
-    <t xml:space="preserve">Pravin </t>
-  </si>
-  <si>
     <t>Shukla</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>Dharam Kumar</t>
+  </si>
+  <si>
+    <t>Bitu Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pravin Kumar </t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,13 +529,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -540,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -554,13 +557,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -568,10 +571,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -579,12 +582,23 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9807569-436B-4377-9EC4-506BBEB92860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309128B6-D3CB-463D-B523-7637C02CC62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>SR.No</t>
   </si>
@@ -84,25 +84,22 @@
     <t>Soni</t>
   </si>
   <si>
-    <t xml:space="preserve">Maddy </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mahesh </t>
   </si>
   <si>
     <t>Dhiraj</t>
   </si>
   <si>
-    <t>Piyush  Kumar</t>
-  </si>
-  <si>
-    <t>Dharam Kumar</t>
-  </si>
-  <si>
     <t>Bitu Kumar</t>
   </si>
   <si>
     <t xml:space="preserve">Pravin Kumar </t>
+  </si>
+  <si>
+    <t>Dharam Kumar New</t>
+  </si>
+  <si>
+    <t>Piyush  Kumar  New</t>
   </si>
 </sst>
 </file>
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -542,9 +539,6 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -557,10 +551,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -571,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -596,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309128B6-D3CB-463D-B523-7637C02CC62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31AB0CC-C251-46A3-AF77-20D2FA2926B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>SR.No</t>
   </si>
@@ -99,7 +99,13 @@
     <t>Dharam Kumar New</t>
   </si>
   <si>
-    <t>Piyush  Kumar  New</t>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piyush  Kumar </t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -593,7 +599,21 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31AB0CC-C251-46A3-AF77-20D2FA2926B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD637EC6-314E-4588-86C5-1B3A54F98A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>SR.No</t>
   </si>
@@ -87,12 +87,6 @@
     <t xml:space="preserve">Mahesh </t>
   </si>
   <si>
-    <t>Dhiraj</t>
-  </si>
-  <si>
-    <t>Bitu Kumar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pravin Kumar </t>
   </si>
   <si>
@@ -106,6 +100,18 @@
   </si>
   <si>
     <t xml:space="preserve">Piyush  Kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daulat </t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitu </t>
+  </si>
+  <si>
+    <t>Kumar</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -559,9 +565,6 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
@@ -571,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -582,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -596,10 +599,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -607,13 +613,24 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD637EC6-314E-4588-86C5-1B3A54F98A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2239F7-AE0B-47BB-BF22-9C4E09E4E2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="25">
   <si>
     <t>SR.No</t>
   </si>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,9 +503,10 @@
     <col min="2" max="2" width="23.7265625" customWidth="1"/>
     <col min="3" max="3" width="32.453125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +519,80 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -532,8 +605,80 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -546,8 +691,80 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -557,8 +774,62 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -568,8 +839,62 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -579,8 +904,62 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -593,8 +972,80 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -607,8 +1058,80 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -621,8 +1144,80 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -630,6 +1225,60 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12">
+        <v>9</v>
+      </c>
+      <c r="V12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="s">
         <v>22</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2239F7-AE0B-47BB-BF22-9C4E09E4E2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C40F8-3E91-4A4D-8861-D6E8D58FABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="25">
   <si>
     <t>SR.No</t>
   </si>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
-  <dimension ref="A2:AB12"/>
+  <dimension ref="A2:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AB12"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="H31" sqref="A31:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1279,6 +1279,2076 @@
         <v>21</v>
       </c>
       <c r="AB12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16" t="s">
+        <v>15</v>
+      </c>
+      <c r="X16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20">
+        <v>8</v>
+      </c>
+      <c r="V20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
+        <v>21</v>
+      </c>
+      <c r="X21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27" t="s">
+        <v>17</v>
+      </c>
+      <c r="W27" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28">
+        <v>7</v>
+      </c>
+      <c r="V28" t="s">
+        <v>23</v>
+      </c>
+      <c r="W28" t="s">
+        <v>24</v>
+      </c>
+      <c r="X28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y28">
+        <v>7</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29">
+        <v>8</v>
+      </c>
+      <c r="V29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" t="s">
+        <v>18</v>
+      </c>
+      <c r="X29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y29">
+        <v>8</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30">
+        <v>9</v>
+      </c>
+      <c r="R30" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30">
+        <v>9</v>
+      </c>
+      <c r="V30" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" t="s">
+        <v>8</v>
+      </c>
+      <c r="X31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" t="s">
+        <v>11</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32" t="s">
+        <v>16</v>
+      </c>
+      <c r="W32" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="W33" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s">
+        <v>15</v>
+      </c>
+      <c r="T34" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34" t="s">
+        <v>15</v>
+      </c>
+      <c r="X34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" t="s">
+        <v>14</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y35">
+        <v>5</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" t="s">
+        <v>8</v>
+      </c>
+      <c r="T36" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36" t="s">
+        <v>17</v>
+      </c>
+      <c r="W36" t="s">
+        <v>8</v>
+      </c>
+      <c r="X36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>6</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" t="s">
+        <v>24</v>
+      </c>
+      <c r="T37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" t="s">
+        <v>24</v>
+      </c>
+      <c r="X37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y37">
+        <v>7</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="R38" t="s">
+        <v>18</v>
+      </c>
+      <c r="S38" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" t="s">
+        <v>18</v>
+      </c>
+      <c r="U38">
+        <v>8</v>
+      </c>
+      <c r="V38" t="s">
+        <v>18</v>
+      </c>
+      <c r="W38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38">
+        <v>8</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+      <c r="R39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T39" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39">
+        <v>9</v>
+      </c>
+      <c r="V39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y39">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB39" t="s">
         <v>22</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhnitinkum.vinod\Desktop\excel-diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D40122-6A21-491F-926B-90C3D13B366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B46D328-0545-4D41-8DCC-25C270B34764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63FB5C2F-3322-4A33-AE12-BF37764062A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="25">
   <si>
     <t>Sr .No</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Kumar</t>
+  </si>
+  <si>
+    <t>Some Extra Information</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A91562-AB95-45AD-B2A1-1D64ED08C75C}">
   <dimension ref="A2:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2532,8 +2535,8 @@
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="C39" t="s">
-        <v>21</v>
+      <c r="B39" t="s">
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
